--- a/instance-cost-examples.xlsx
+++ b/instance-cost-examples.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="1320" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EC2 Instances" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>Up Front</t>
   </si>
@@ -49,13 +49,19 @@
     <t>Large, On Demand</t>
   </si>
   <si>
-    <t>Multi-AZ</t>
-  </si>
-  <si>
     <t>Large Reserved: Heavy Util</t>
   </si>
   <si>
     <t>"Monthly"</t>
+  </si>
+  <si>
+    <t>Monthly Cost</t>
+  </si>
+  <si>
+    <t>Single AZ</t>
+  </si>
+  <si>
+    <t>Multi AZ</t>
   </si>
 </sst>
 </file>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.000"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,15 +98,10 @@
     </font>
     <font>
       <b/>
-      <sz val="48"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -139,7 +140,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -161,25 +162,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -190,6 +200,8 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -200,6 +212,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -529,16 +543,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView zoomScale="263" zoomScaleNormal="263" zoomScalePageLayoutView="263" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="60" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="58.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
@@ -556,7 +570,7 @@
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="14">
         <v>0</v>
       </c>
     </row>
@@ -564,7 +578,7 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>0.24</v>
       </c>
     </row>
@@ -572,7 +586,7 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <f>365*24</f>
         <v>8760</v>
       </c>
@@ -581,22 +595,25 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <f>B4+(B5*B6)</f>
         <v>2102.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <f>B7/12</f>
         <v>175.20000000000002</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="8"/>
+    </row>
     <row r="10" spans="1:2" s="1" customFormat="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="10"/>
@@ -605,7 +622,7 @@
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>780</v>
       </c>
     </row>
@@ -613,7 +630,7 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="13">
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
@@ -621,7 +638,7 @@
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <f>365*24</f>
         <v>8760</v>
       </c>
@@ -636,10 +653,19 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="12">
+        <f>30.5*24*B12</f>
+        <v>46.847999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12">
         <f>B14/12</f>
         <v>111.71999999999998</v>
       </c>
@@ -657,17 +683,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" zoomScale="263" zoomScaleNormal="263" zoomScalePageLayoutView="263" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="60" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="59.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="2"/>
     <col min="5" max="6" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
@@ -683,19 +709,21 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12" t="s">
-        <v>9</v>
+      <c r="B3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -703,10 +731,10 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>0.24</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="13">
         <v>0.30599999999999999</v>
       </c>
     </row>
@@ -714,11 +742,11 @@
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <f>365*24</f>
         <v>8760</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <f>365*24</f>
         <v>8760</v>
       </c>
@@ -727,45 +755,47 @@
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <f>B4+(B5*B6)</f>
         <v>2102.4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <f>C4+(C5*C6)</f>
         <v>2680.56</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <f>B7/12</f>
         <v>175.20000000000002</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="9">
         <f>C7/12</f>
         <v>223.38</v>
       </c>
     </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+    </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
+      <c r="A10" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="8">
         <v>780</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="8">
         <v>1560</v>
       </c>
     </row>
@@ -773,7 +803,7 @@
       <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>0.11</v>
       </c>
       <c r="C12" s="8">
@@ -784,11 +814,11 @@
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="8">
         <f>365*24</f>
         <v>8760</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="7">
         <f>365*24</f>
         <v>8760</v>
       </c>
@@ -801,20 +831,33 @@
         <f>B11+(B12*B13)</f>
         <v>1743.6</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="7">
         <f>C11+(C12*C13)</f>
         <v>3487.2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="12">
+        <f>30.5*24*B12</f>
+        <v>80.52</v>
+      </c>
+      <c r="C15" s="12">
+        <f>30.5*24*C12</f>
+        <v>161.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="12">
         <f>B14/12</f>
         <v>145.29999999999998</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="9">
         <f>C14/12</f>
         <v>290.59999999999997</v>
       </c>
